--- a/public/sales_trial.xlsx
+++ b/public/sales_trial.xlsx
@@ -50,15 +50,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="17">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="18">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -74,6 +76,65 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -81,81 +142,40 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -167,44 +187,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -256,31 +276,69 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -291,23 +349,23 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Status 10" xfId="34"/>
+    <cellStyle name="Text 6" xfId="35"/>
+    <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -380,7 +438,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,6 +472,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>44484</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
@@ -422,6 +483,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>44484</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>

--- a/public/sales_trial.xlsx
+++ b/public/sales_trial.xlsx
@@ -55,7 +55,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,11 +171,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -328,7 +323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,7 +332,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,10 +434,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7:C8"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,26 +459,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="C4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>6000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>44484</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>13000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,11 +478,25 @@
         <v>44484</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>44484</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>8000</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
